--- a/springboot-sql/src/test/resources/0610.xlsx
+++ b/springboot-sql/src/test/resources/0610.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SASAOrgRelation|国企组织关联业务系统组织表" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="72">
   <si>
     <t>字段名</t>
   </si>
@@ -163,6 +163,156 @@
     <t>唯一索引</t>
   </si>
   <si>
+    <t>gzwUseName</t>
+  </si>
+  <si>
+    <t>资金用途名称（国资委）</t>
+  </si>
+  <si>
+    <t>国资委统一制定的资金用途名称</t>
+  </si>
+  <si>
+    <t>qyUseCode</t>
+  </si>
+  <si>
+    <t>资金用途编码（企业）</t>
+  </si>
+  <si>
+    <t>qyUseName</t>
+  </si>
+  <si>
+    <t>资金用途名称（企业）</t>
+  </si>
+  <si>
+    <t>企业资金用途名称</t>
+  </si>
+  <si>
+    <t>科目唯一标识</t>
+  </si>
+  <si>
+    <r>
+      <t>gzwKM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BH</t>
+    </r>
+  </si>
+  <si>
+    <t>科目编码（国资委）</t>
+  </si>
+  <si>
+    <t>gzwKMMC</t>
+  </si>
+  <si>
+    <t>科目名称（国资委）</t>
+  </si>
+  <si>
+    <t>国资委统一制定的科目名称</t>
+  </si>
+  <si>
+    <t>qyKMBH</t>
+  </si>
+  <si>
+    <t>科目编码（企业）</t>
+  </si>
+  <si>
+    <t>qyKMMC</t>
+  </si>
+  <si>
+    <t>科目名称（企业）</t>
+  </si>
+  <si>
+    <t>企业科目名称</t>
+  </si>
+  <si>
+    <t>币种唯一标识</t>
+  </si>
+  <si>
+    <r>
+      <t>gzw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>WBBH</t>
+    </r>
+  </si>
+  <si>
+    <t>币种编码（国资委）</t>
+  </si>
+  <si>
+    <r>
+      <t>gzw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>WBMC</t>
+    </r>
+  </si>
+  <si>
+    <t>币种名称（国资委）</t>
+  </si>
+  <si>
+    <t>国资委统一制定的币种名称</t>
+  </si>
+  <si>
+    <r>
+      <t>qy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>WBBH</t>
+    </r>
+  </si>
+  <si>
+    <t>币种编码（企业）</t>
+  </si>
+  <si>
+    <r>
+      <t>qy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>WBMC</t>
+    </r>
+  </si>
+  <si>
+    <t>币种名称（企业）</t>
+  </si>
+  <si>
+    <t>企业币种名称</t>
+  </si>
+  <si>
     <r>
       <t>最大</t>
     </r>
@@ -183,59 +333,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>位编号。</t>
-    </r>
-  </si>
-  <si>
-    <t>国资委统一制定的资金用途编码</t>
-  </si>
-  <si>
-    <t>gzwUseName</t>
-  </si>
-  <si>
-    <t>资金用途名称（国资委）</t>
-  </si>
-  <si>
-    <t>国资委统一制定的资金用途名称</t>
-  </si>
-  <si>
-    <t>qyUseCode</t>
-  </si>
-  <si>
-    <t>资金用途编码（企业）</t>
-  </si>
-  <si>
-    <t>企业资金用途编码</t>
-  </si>
-  <si>
-    <t>qyUseName</t>
-  </si>
-  <si>
-    <t>资金用途名称（企业）</t>
-  </si>
-  <si>
-    <t>企业资金用途名称</t>
-  </si>
-  <si>
-    <t>科目唯一标识</t>
-  </si>
-  <si>
-    <r>
-      <t>gzwKM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>BH</t>
-    </r>
-  </si>
-  <si>
-    <t>科目编码（国资委）</t>
+      <t>位编号。国资委统一制定的资金用途编码</t>
+    </r>
   </si>
   <si>
     <r>
@@ -248,7 +347,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>50</t>
+      <t>6</t>
     </r>
     <r>
       <rPr>
@@ -258,59 +357,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>位编号。</t>
-    </r>
-  </si>
-  <si>
-    <t>国资委统一制定的科目编码</t>
-  </si>
-  <si>
-    <t>gzwKMMC</t>
-  </si>
-  <si>
-    <t>科目名称（国资委）</t>
-  </si>
-  <si>
-    <t>国资委统一制定的科目名称</t>
-  </si>
-  <si>
-    <t>qyKMBH</t>
-  </si>
-  <si>
-    <t>科目编码（企业）</t>
-  </si>
-  <si>
-    <t>企业科目编码</t>
-  </si>
-  <si>
-    <t>qyKMMC</t>
-  </si>
-  <si>
-    <t>科目名称（企业）</t>
-  </si>
-  <si>
-    <t>企业科目名称</t>
-  </si>
-  <si>
-    <t>币种唯一标识</t>
-  </si>
-  <si>
-    <r>
-      <t>gzw</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>WBBH</t>
-    </r>
-  </si>
-  <si>
-    <t>币种编码（国资委）</t>
+      <t>位编号。企业资金用途编码</t>
+    </r>
   </si>
   <si>
     <r>
@@ -323,7 +371,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>20</t>
+      <t>50</t>
     </r>
     <r>
       <rPr>
@@ -333,74 +381,80 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>位编号。</t>
-    </r>
-  </si>
-  <si>
-    <t>国资委统一制定的币种编码</t>
-  </si>
-  <si>
-    <r>
-      <t>gzw</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+      <t>位编号。国资委统一制定的科目编码</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>WBMC</t>
-    </r>
-  </si>
-  <si>
-    <t>币种名称（国资委）</t>
-  </si>
-  <si>
-    <t>国资委统一制定的币种名称</t>
-  </si>
-  <si>
-    <r>
-      <t>qy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+      <t>位编号。企业科目编码</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>WBBH</t>
-    </r>
-  </si>
-  <si>
-    <t>币种编码（企业）</t>
-  </si>
-  <si>
-    <t>企业币种编码</t>
-  </si>
-  <si>
-    <r>
-      <t>qy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+      <t>位编号。资委统一制定的币种编码</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>WBMC</t>
-    </r>
-  </si>
-  <si>
-    <t>币种名称（企业）</t>
-  </si>
-  <si>
-    <t>企业币种名称</t>
+      <t>位编号。企业币种编码</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -463,7 +517,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -523,33 +577,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -575,44 +607,11 @@
     <xf numFmtId="3" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -896,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -929,11 +928,11 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>10</v>
@@ -951,11 +950,11 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>10</v>
@@ -971,11 +970,11 @@
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>10</v>
@@ -991,11 +990,11 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>10</v>
@@ -1009,11 +1008,11 @@
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>10</v>
@@ -1027,11 +1026,11 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>10</v>
@@ -1045,11 +1044,11 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>23</v>
@@ -1063,11 +1062,11 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
@@ -1081,11 +1080,11 @@
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>28</v>
@@ -1109,10 +1108,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1144,10 +1143,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1163,148 +1162,109 @@
       <c r="G2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="16">
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5">
         <v>6</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="18" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5">
+        <v>500</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="10" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="53.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>39</v>
       </c>
+      <c r="B5" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="5">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5">
         <v>500</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="16">
-        <v>6</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="10" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="5">
-        <v>500</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection sqref="A1:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1336,10 +1296,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1349,143 +1309,103 @@
         <v>36</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="66" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5">
+        <v>50</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="27" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5">
+        <v>200</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="16">
+    </row>
+    <row r="5" spans="1:8" ht="53.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="11" t="s">
+      <c r="B5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5">
         <v>200</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="10" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="16">
-        <v>50</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="5">
-        <v>200</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1493,10 +1413,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1528,10 +1448,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1547,137 +1467,97 @@
       <c r="G2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="66" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5">
+        <v>200</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="53.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="27" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="16">
-        <v>20</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="10" t="s">
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5">
+        <v>200</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5">
-        <v>200</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="16">
-        <v>20</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="5">
-        <v>200</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
